--- a/04_詳細設計/05_清掃当番画面/清掃当番表.xlsx
+++ b/04_詳細設計/05_清掃当番画面/清掃当番表.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AIDriven\01_docs\03_基本設計\03_画面設計\05_清掃当番画面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AIDriven\01_docs\04_詳細設計\05_清掃当番画面\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37687FC-14B4-443C-ACAD-FBAC3FF1394A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03DC16F-C446-4829-9A21-ACFD54A69C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A1B74BF9-714D-46DE-AC92-5DE3B37A661E}"/>
   </bookViews>
   <sheets>
     <sheet name="清掃当番管理" sheetId="1" r:id="rId1"/>
     <sheet name="ユーザ登録" sheetId="2" r:id="rId2"/>
+    <sheet name="ユーザ一覧" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1311,1476 +1312,1757 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>196215</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>287656</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>27949</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>19497</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>370417</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>116416</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF287FCC-35C8-2FA5-87C3-478EFD7021D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47E486F1-9EE6-AD35-1257-07C6FEE26163}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="196215" y="6644640"/>
-          <a:ext cx="9168139" cy="3200847"/>
+          <a:off x="287656" y="133350"/>
+          <a:ext cx="7417011" cy="3941233"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>291465</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:colOff>474466</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>207206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>5715</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>592667</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133402</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="32" name="グループ化 31">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB2D5B87-0BE9-849A-FE94-5F2F30D12556}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DD05E7D-A6A7-0BDF-E002-504F74EB2D17}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="287655" y="133350"/>
-          <a:ext cx="9054465" cy="4301490"/>
-          <a:chOff x="800100" y="3829050"/>
-          <a:chExt cx="9048750" cy="4301490"/>
+          <a:off x="474466" y="440039"/>
+          <a:ext cx="2118451" cy="391863"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="正方形/長方形 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47E486F1-9EE6-AD35-1257-07C6FEE26163}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="800100" y="3829050"/>
-            <a:ext cx="9048750" cy="4301490"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="正方形/長方形 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DD05E7D-A6A7-0BDF-E002-504F74EB2D17}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="990601" y="4133850"/>
-            <a:ext cx="3200400" cy="377190"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="正方形/長方形 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4B38651-BE8D-F7A2-A32E-8CB06C4ADB34}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="986791" y="4838700"/>
-            <a:ext cx="2137409" cy="377190"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="正方形/長方形 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5108679-D16A-52A1-389D-3E33FBB0818A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3379471" y="4838700"/>
-            <a:ext cx="2133599" cy="377190"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="正方形/長方形 10">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0EFBC40-B835-8A18-E92C-E96483A20665}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="990601" y="5497830"/>
-            <a:ext cx="2133599" cy="377190"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="正方形/長方形 11">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38B91F90-67E4-2C00-E278-28CEAC601D8D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3381376" y="5497830"/>
-            <a:ext cx="2129789" cy="377190"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="正方形/長方形 12">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE34EE1A-6ED6-B8B9-2736-130469A6C907}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4507231" y="4130040"/>
-            <a:ext cx="3196590" cy="384810"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="テキスト ボックス 14">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{297B5638-80E3-CDC3-7999-4F25F876002A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="960119" y="3848100"/>
-            <a:ext cx="1552575" cy="295275"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>メールアドレス</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>*</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="テキスト ボックス 15">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70BA036F-5FC1-C145-4F01-AB39FFF131F4}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4478654" y="3848100"/>
-            <a:ext cx="1544955" cy="293370"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>ニックネーム</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>*</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="テキスト ボックス 16">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0AF5C79-8B89-3F6E-30AC-0C39936CA4CD}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="956309" y="4560570"/>
-            <a:ext cx="1560195" cy="293370"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>性</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>*</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="テキスト ボックス 17">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D54A1F69-988C-E08F-0410-1D00F47852C6}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3375659" y="4558665"/>
-            <a:ext cx="1560195" cy="299085"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>名</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>*</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="テキスト ボックス 18">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F8273E5-36C9-E98B-AC1C-FFB254E579BD}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="956309" y="5246370"/>
-            <a:ext cx="1560195" cy="293370"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>性：ふりがな</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>*</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="テキスト ボックス 19">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1D11BF5-A25F-4C19-80B3-6D9629B7EE84}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3350894" y="5244465"/>
-            <a:ext cx="1558290" cy="299085"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>名：ふりがな</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>*</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="正方形/長方形 20">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3C316A0-539A-8593-3093-02FC8B7EC888}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="986791" y="6136005"/>
-            <a:ext cx="2137409" cy="377190"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="テキスト ボックス 21">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FB232CA-F7A3-E1E0-BDDB-002760A9F136}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="952499" y="5903595"/>
-            <a:ext cx="1560195" cy="289560"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>グループ</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>ID</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="テキスト ボックス 22">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE6A70C-CA99-71F0-0D34-71934D6242AF}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3356609" y="5903595"/>
-            <a:ext cx="1560195" cy="285750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>住居番号</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="正方形/長方形 23">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A028D99C-0C84-1C1B-0FD9-8DD1A68B8E8E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3390901" y="6136005"/>
-            <a:ext cx="2133599" cy="377190"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="25" name="正方形/長方形 24">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E8023C8-10AA-1209-A433-60AEC4E4F4D7}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="990601" y="6821805"/>
-            <a:ext cx="2133599" cy="1044622"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="26" name="テキスト ボックス 25">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCD6E375-63F2-04F0-A269-831F0B886869}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="956309" y="6539865"/>
-            <a:ext cx="1560195" cy="295275"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>ロール</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>*</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="27" name="正方形/長方形 26">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C970D05-0E10-DC89-EE5D-B96260CDB6AA}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3579496" y="6821805"/>
-            <a:ext cx="2150744" cy="1042036"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="28" name="テキスト ボックス 27">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27AC1FC2-7EE9-A3F2-25BE-8FE0DC8DAA82}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="956309" y="6871334"/>
-            <a:ext cx="1560195" cy="851536"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>管理組合</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>一般利用者</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>班長</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="29" name="テキスト ボックス 28">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AF25FC2-D2E3-7D43-CF23-0B6649322C7B}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3108958" y="6722744"/>
-            <a:ext cx="699136" cy="1253490"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>＞</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>＞＞</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>＜</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>＜＜</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="30" name="正方形/長方形 29">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{961C8264-EE76-D720-4473-8AF91222484E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5840731" y="6136005"/>
-            <a:ext cx="2129789" cy="377190"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="テキスト ボックス 30">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42631244-F010-CA2B-9058-A0CB938A77CF}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5808344" y="5903595"/>
-            <a:ext cx="1554480" cy="289560"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>言語</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>*</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>592455</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>474464</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>230546</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>430530</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>612973</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>149122</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4B38651-BE8D-F7A2-A32E-8CB06C4ADB34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="474464" y="1161879"/>
+          <a:ext cx="2138759" cy="384243"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>201655</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>230546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>336352</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>149122</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5108679-D16A-52A1-389D-3E33FBB0818A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2868655" y="1161879"/>
+          <a:ext cx="2134947" cy="384243"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>478276</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>203501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>612973</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>122077</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0EFBC40-B835-8A18-E92C-E96483A20665}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="478276" y="1833334"/>
+          <a:ext cx="2134947" cy="384243"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>203561</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>203501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>334445</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>122077</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38B91F90-67E4-2C00-E278-28CEAC601D8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2870561" y="1833334"/>
+          <a:ext cx="2131134" cy="384243"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>203426</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>207135</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>370418</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133474</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE34EE1A-6ED6-B8B9-2736-130469A6C907}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2870426" y="439968"/>
+          <a:ext cx="2167242" cy="392006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>447775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152756</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1081</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>220719</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{297B5638-80E3-CDC3-7999-4F25F876002A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447775" y="152756"/>
+          <a:ext cx="1553556" cy="300796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メールアドレス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>*</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>165305</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152756</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>379641</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>216874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70BA036F-5FC1-C145-4F01-AB39FFF131F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2832305" y="152756"/>
+          <a:ext cx="1547836" cy="296951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ニックネーム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>*</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>443963</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4893</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>13238</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0AF5C79-8B89-3F6E-30AC-0C39936CA4CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="443963" y="878549"/>
+          <a:ext cx="1561180" cy="298856"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>性</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>*</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>197841</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>178108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>425521</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>17119</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D54A1F69-988C-E08F-0410-1D00F47852C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2864841" y="876608"/>
+          <a:ext cx="1561180" cy="304678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>*</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>443963</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4893</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>13361</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F8273E5-36C9-E98B-AC1C-FFB254E579BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="443963" y="1577172"/>
+          <a:ext cx="1561180" cy="298856"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>性：ふりがな</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>*</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>173060</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>178232</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>398834</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>17243</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1D11BF5-A25F-4C19-80B3-6D9629B7EE84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2840060" y="1575232"/>
+          <a:ext cx="1559274" cy="304678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>名：ふりがな</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>*</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>658191</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>208026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>126140</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>126602</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3C316A0-539A-8593-3093-02FC8B7EC888}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5325441" y="1837859"/>
+          <a:ext cx="2134949" cy="384243"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>618162</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>207914</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>179092</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>27696</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FB232CA-F7A3-E1E0-BDDB-002760A9F136}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5285412" y="1604914"/>
+          <a:ext cx="1561180" cy="285449"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>グループ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619469</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>3020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180399</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>65089</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CE6A70C-CA99-71F0-0D34-71934D6242AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5286719" y="934353"/>
+          <a:ext cx="1561180" cy="294903"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>住居番号</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>653782</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>6941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>127444</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>158351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A028D99C-0C84-1C1B-0FD9-8DD1A68B8E8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5321032" y="1171108"/>
+          <a:ext cx="2140662" cy="384243"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>467694</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>149517</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>598581</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>62841</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E8023C8-10AA-1209-A433-60AEC4E4F4D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="467694" y="2710684"/>
+          <a:ext cx="2131137" cy="1077490"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>423856</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>100854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>26</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>176436</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCD6E375-63F2-04F0-A269-831F0B886869}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="423856" y="2429187"/>
+          <a:ext cx="1576420" cy="308416"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ロール</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>*</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>391224</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>149517</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>543076</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>60207</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C970D05-0E10-DC89-EE5D-B96260CDB6AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3058224" y="2710684"/>
+          <a:ext cx="2152102" cy="1074856"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>423856</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>211402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>26</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>138003</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27AC1FC2-7EE9-A3F2-25BE-8FE0DC8DAA82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="423856" y="2772569"/>
+          <a:ext cx="1576420" cy="857934"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>管理組合</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>一般利用者</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>班長</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>579519</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>61939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619967</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>174702</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AF25FC2-D2E3-7D43-CF23-0B6649322C7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2579769" y="2623106"/>
+          <a:ext cx="707198" cy="1276929"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>＞</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>＞＞</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>＜</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>＜＜</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>648769</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>216704</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>107188</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{961C8264-EE76-D720-4473-8AF91222484E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5316019" y="449537"/>
+          <a:ext cx="2125419" cy="382338"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>608741</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>210877</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>167763</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>42089</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42631244-F010-CA2B-9058-A0CB938A77CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5275991" y="210877"/>
+          <a:ext cx="1559272" cy="296879"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>言語</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>*</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>93345</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>129539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>612140</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2795,8 +3077,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9926955" y="2190750"/>
-          <a:ext cx="4505325" cy="6134100"/>
+          <a:off x="14901545" y="129539"/>
+          <a:ext cx="4557395" cy="6871335"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3257,15 +3539,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>268817</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>196851</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>636360</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>133778</xdr:rowOff>
+      <xdr:colOff>569897</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>59695</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3281,15 +3563,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="342900" y="10096500"/>
-          <a:ext cx="14297115" cy="3063668"/>
+          <a:off x="268817" y="4387851"/>
+          <a:ext cx="14302830" cy="3122511"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3300,16 +3582,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>125730</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>119168</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>136101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>360045</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>351578</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>107526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3324,8 +3606,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6126480" y="11268075"/>
-          <a:ext cx="5568315" cy="895350"/>
+          <a:off x="5453168" y="7353934"/>
+          <a:ext cx="5566410" cy="902759"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -3391,6 +3673,440 @@
             <a:t>group_leader</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>404595</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>97044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>645610</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>172626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{068B01FA-53BD-7F9A-EF6B-DF56FEC944B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3071595" y="2425377"/>
+          <a:ext cx="1574515" cy="308416"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>選択済ロール</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>395394</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>109812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>27927</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>24579</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D43059B-7C95-C4DD-D81D-F18738FA4FFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6396144" y="3369479"/>
+          <a:ext cx="966033" cy="380433"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>450735</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>158806</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>40430</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>199992</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE5F50A6-D975-F0D9-2B93-65A1A17286D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6451485" y="3418473"/>
+          <a:ext cx="923195" cy="274019"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ユーザ登録</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>193716</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133943</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{040BD577-CF7D-55B9-3103-A90530F6E49F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="144780" y="0"/>
+          <a:ext cx="9383436" cy="4248743"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="吹き出し: 四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28F2F433-1A29-4B1A-9720-57ED73DEAB9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4221480" y="1501140"/>
+          <a:ext cx="2522220" cy="640080"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -44781"/>
+            <a:gd name="adj2" fmla="val -83580"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「ふりがな」のデータ表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>fast_name_kata+Last_name_kana</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>367665</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="吹き出し: 四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B85233FF-489E-414F-B491-F623A0B0EA6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1034415" y="1725930"/>
+          <a:ext cx="2385060" cy="701040"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 45320"/>
+            <a:gd name="adj2" fmla="val -111957"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「氏名」のデータ表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>fast_name_+Last_name</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3699,7 +4415,7 @@
   <dimension ref="B3:F23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3963,8 +4679,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B471C338-6DCA-48AB-A738-0CA1BAAB44BE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47FD4EB-107C-4F48-B800-F3BF993FD926}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
